--- a/data/predict.xlsx
+++ b/data/predict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMANG\Documents\GitHub\LLM4StockPrediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414E130-7928-4052-B33A-4EFB0E8B8C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C58509-9757-44BE-AA0C-300B21C21933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Adani Enterprises Ltd.</t>
   </si>
@@ -195,67 +195,142 @@
     <t>Results</t>
   </si>
   <si>
-    <t>+3.66%</t>
-  </si>
-  <si>
-    <t>+2.67%</t>
-  </si>
-  <si>
-    <t>-0.53%</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>+0.67%</t>
-  </si>
-  <si>
-    <t>+2.73%</t>
-  </si>
-  <si>
-    <t>+2.02%</t>
-  </si>
-  <si>
-    <t>+2.63%</t>
-  </si>
-  <si>
-    <t>+1.67%</t>
-  </si>
-  <si>
-    <t>+0.02%</t>
-  </si>
-  <si>
-    <t>+3.07%</t>
-  </si>
-  <si>
-    <t>+4.60%</t>
-  </si>
-  <si>
-    <t>+3.97%</t>
-  </si>
-  <si>
-    <t>+1.46%</t>
-  </si>
-  <si>
-    <t>+1.54%</t>
-  </si>
-  <si>
-    <t>+4.00%</t>
-  </si>
-  <si>
-    <t>+0.98%</t>
-  </si>
-  <si>
-    <t>+2.28%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>+1.44%</t>
-  </si>
-  <si>
-    <t>+6.70%</t>
+    <t>+4.21%</t>
+  </si>
+  <si>
+    <t>+4.37%</t>
+  </si>
+  <si>
+    <t>-1.49%</t>
+  </si>
+  <si>
+    <t>-1.03%</t>
+  </si>
+  <si>
+    <t>+2.64%</t>
+  </si>
+  <si>
+    <t>+2.54%</t>
+  </si>
+  <si>
+    <t>+1.27%</t>
+  </si>
+  <si>
+    <t>+2.12%</t>
+  </si>
+  <si>
+    <t>+0.56%</t>
+  </si>
+  <si>
+    <t>+1.1%</t>
+  </si>
+  <si>
+    <t>+1.57%</t>
+  </si>
+  <si>
+    <t>+0.85%</t>
+  </si>
+  <si>
+    <t>+2.79%</t>
+  </si>
+  <si>
+    <t>+4.20%</t>
+  </si>
+  <si>
+    <t>+3.9%</t>
+  </si>
+  <si>
+    <t>+2.44%</t>
+  </si>
+  <si>
+    <t>+2.33%</t>
+  </si>
+  <si>
+    <t>+3.3%</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>+2.92%</t>
+  </si>
+  <si>
+    <t>+3.96%</t>
+  </si>
+  <si>
+    <t>+2.70%</t>
+  </si>
+  <si>
+    <t>+0.25%</t>
+  </si>
+  <si>
+    <t>+2.90%</t>
+  </si>
+  <si>
+    <t>+6.13%</t>
+  </si>
+  <si>
+    <t>+1.00%</t>
+  </si>
+  <si>
+    <t>+1.83%</t>
+  </si>
+  <si>
+    <t>+0.69%</t>
+  </si>
+  <si>
+    <t>+4.48%</t>
+  </si>
+  <si>
+    <t>+2.08%</t>
+  </si>
+  <si>
+    <t>+1.09%</t>
+  </si>
+  <si>
+    <t>+1.86%</t>
+  </si>
+  <si>
+    <t>+0.51%</t>
+  </si>
+  <si>
+    <t>+0.89%</t>
+  </si>
+  <si>
+    <t>+1.28%</t>
+  </si>
+  <si>
+    <t>+0.33%</t>
+  </si>
+  <si>
+    <t>+1.61%</t>
+  </si>
+  <si>
+    <t>+2.42%</t>
+  </si>
+  <si>
+    <t>+1.39%</t>
+  </si>
+  <si>
+    <t>+0.53%</t>
+  </si>
+  <si>
+    <t>+0.17%</t>
+  </si>
+  <si>
+    <t>+4.45%</t>
+  </si>
+  <si>
+    <t>+1.6%</t>
+  </si>
+  <si>
+    <t>+1.14%</t>
+  </si>
+  <si>
+    <t>+2.85%</t>
+  </si>
+  <si>
+    <t>+1.7%</t>
   </si>
 </sst>
 </file>
@@ -345,21 +420,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,26 +716,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -679,7 +751,7 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -699,7 +771,7 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -719,7 +791,7 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -739,7 +811,7 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -759,7 +831,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -779,8 +851,8 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>60</v>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -799,8 +871,8 @@
       <c r="E8" s="2">
         <v>-1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>61</v>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,8 +891,8 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -839,8 +911,8 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -859,7 +931,7 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -879,7 +951,7 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -899,7 +971,7 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -919,7 +991,7 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -939,7 +1011,7 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -959,7 +1031,7 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -979,7 +1051,7 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -999,7 +1071,7 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1019,7 +1091,7 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1039,7 +1111,7 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1059,7 +1131,7 @@
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1079,8 +1151,8 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>74</v>
+      <c r="F22" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1099,8 +1171,8 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>75</v>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1119,8 +1191,8 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>76</v>
+      <c r="F24" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1139,7 +1211,9 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -1157,7 +1231,9 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1175,7 +1251,9 @@
       <c r="E27" s="1">
         <v>-1</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1193,7 +1271,9 @@
       <c r="E28" s="1">
         <v>-1</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1211,7 +1291,9 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1229,7 +1311,9 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -1247,7 +1331,9 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1265,7 +1351,9 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1283,7 +1371,9 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1301,7 +1391,9 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1319,7 +1411,9 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1337,7 +1431,9 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -1355,7 +1451,9 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -1373,7 +1471,9 @@
       <c r="E38" s="2">
         <v>-1</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1391,7 +1491,9 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -1409,7 +1511,9 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1427,7 +1531,9 @@
       <c r="E41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1445,7 +1551,9 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -1463,7 +1571,9 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -1481,7 +1591,9 @@
       <c r="E44" s="2">
         <v>-1</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -1499,7 +1611,9 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -1517,7 +1631,9 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -1535,7 +1651,9 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -1553,7 +1671,9 @@
       <c r="E48" s="2">
         <v>0</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1571,7 +1691,9 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -1589,7 +1711,9 @@
       <c r="E50" s="2">
         <v>0</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1607,7 +1731,9 @@
       <c r="E51" s="2">
         <v>-1</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
